--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1642.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1642.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.027938106874527</v>
+        <v>1.690820217132568</v>
       </c>
       <c r="B1">
-        <v>3.071021134033286</v>
+        <v>3.69589376449585</v>
       </c>
       <c r="C1">
-        <v>3.491850807881974</v>
+        <v>3.423209667205811</v>
       </c>
       <c r="D1">
-        <v>2.398749720828138</v>
+        <v>3.330772399902344</v>
       </c>
       <c r="E1">
-        <v>1.216478686505696</v>
+        <v>1.200621843338013</v>
       </c>
     </row>
   </sheetData>
